--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3972456.34794352</v>
+        <v>3990831.037409641</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7543515.948138999</v>
+        <v>7543515.948138998</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>175.7854456763502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>47.80654717117288</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.62203021035427</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>208.0481001000691</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1468521153387</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.48218068235078</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.36189168600487</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6910260201687</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.1859401286772</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>330.9682808159667</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>253.9277553818581</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.75000363773665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>11.89446409565907</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>11.89446409565907</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>59.77945773664969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.55822595583</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>82.93992814251962</v>
+        <v>4.222908378110342</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>22.45317346088589</v>
       </c>
       <c r="S25" t="n">
-        <v>44.62928029790847</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>31.42218700821033</v>
       </c>
       <c r="F28" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857129</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692791</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373649</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789509</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3490,7 +3490,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224535</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329001</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463097</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4031,7 +4031,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>134.9443573138268</v>
+        <v>58.40168825977577</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C2" t="n">
-        <v>958.4104146827526</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D2" t="n">
-        <v>958.4104146827526</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E2" t="n">
-        <v>572.6221620845083</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>429.427143371405</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>142.6520620212647</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2676.460019621908</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2500.282531936079</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2281.647864908141</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2027.886079546233</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1696.823192202662</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.823192202662</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1696.823192202662</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.823192202662</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.7832764526926</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>101.7832764526926</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962227</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.7832764526926</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1679.612634002136</v>
       </c>
       <c r="D8" t="n">
         <v>1345.301239238533</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>598.0446400632119</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>598.0446400632119</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5127,16 +5127,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.5954956259884</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C13" t="n">
-        <v>468.5954956259884</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1486.901660360267</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1486.901660360267</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1197.773021573825</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>943.0885333679382</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259884</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,13 +5312,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1486.901660360267</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1486.901660360267</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1197.773021573825</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>943.0885333679382</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1028.182334196465</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1028.182334196465</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1028.182334196465</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>800.1927832984481</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.400204154918</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684848</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W22" t="n">
-        <v>902.2245113665022</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X22" t="n">
-        <v>674.2349604684848</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.2349604684848</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916434</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>4163.095825135131</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4683.396446870878</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1476.236297365088</v>
       </c>
       <c r="S25" t="n">
-        <v>1342.76108601073</v>
+        <v>1276.316287280641</v>
       </c>
       <c r="T25" t="n">
-        <v>1118.975670800235</v>
+        <v>1276.316287280641</v>
       </c>
       <c r="U25" t="n">
-        <v>1118.975670800235</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="V25" t="n">
-        <v>864.2911825943485</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="W25" t="n">
-        <v>864.2911825943485</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X25" t="n">
-        <v>636.3016316963311</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.509052552801</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,22 +6248,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113634</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.7278130442839</v>
+        <v>128.956674296862</v>
       </c>
       <c r="C28" t="n">
-        <v>136.7278130442839</v>
+        <v>128.956674296862</v>
       </c>
       <c r="D28" t="n">
-        <v>136.7278130442839</v>
+        <v>128.956674296862</v>
       </c>
       <c r="E28" t="n">
-        <v>136.7278130442839</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>874.927113122792</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>585.5099430858313</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>357.520392187814</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7278130442839</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083207</v>
@@ -6622,7 +6622,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>400.2445180358627</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.141587792751</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.461721072713</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6956,7 +6956,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014291</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372321</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.4118289828</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3755.274456646833</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4034.81452186553</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601277</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852602</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480308</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480086</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839948</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782175</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746023</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979764</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813791</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.599560616158</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571751</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401299</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.225769654898</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489052</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492132</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634156</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530667</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506728</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,16 +7588,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,67 +7631,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3745.57946495914</v>
+        <v>3686.322319899658</v>
       </c>
       <c r="C46" t="n">
-        <v>3609.272033329012</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929846</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.149147719352</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U46" t="n">
-        <v>4148.02050893291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V46" t="n">
-        <v>4148.02050893291</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W46" t="n">
-        <v>4148.02050893291</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X46" t="n">
-        <v>4148.02050893291</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y46" t="n">
-        <v>3927.22792978938</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539331</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>62.9112074258378</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M21" t="n">
-        <v>20.6378986413543</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>286.5092576192341</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>113.6026921294539</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
-        <v>349.7653003338555</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>92.8654693804757</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>186.0263458879442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>186.0263458879442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.3581855871783</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>239.6791264427473</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>203.5830701940714</v>
+        <v>282.3000899584807</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.51117894290689</v>
       </c>
       <c r="S25" t="n">
-        <v>153.2915296856948</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>115.0117756383588</v>
       </c>
       <c r="F28" t="n">
-        <v>106.3054336547732</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>32.30246378480101</v>
+        <v>108.8451328388521</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664823.1235065464</v>
+        <v>664823.1235065463</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664823.1235065463</v>
+        <v>664823.1235065464</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="I2" t="n">
-        <v>762506.6664885323</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885329</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362278</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.15203161967</v>
+        <v>51722.33279362277</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362273</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002536</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49330.33014554609</v>
+        <v>-46802.00898210378</v>
       </c>
       <c r="C6" t="n">
-        <v>540637.5490689983</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="D6" t="n">
-        <v>540637.5490689984</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="E6" t="n">
-        <v>114020.9392726203</v>
+        <v>116055.7585106173</v>
       </c>
       <c r="F6" t="n">
-        <v>639180.9757495165</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="G6" t="n">
-        <v>639180.9757495167</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="H6" t="n">
-        <v>639180.9757495166</v>
+        <v>641215.7949875138</v>
       </c>
       <c r="I6" t="n">
-        <v>639180.9757495165</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="J6" t="n">
-        <v>462757.7565569233</v>
+        <v>464792.5757949206</v>
       </c>
       <c r="K6" t="n">
-        <v>594537.9556623192</v>
+        <v>596572.774900316</v>
       </c>
       <c r="L6" t="n">
-        <v>649043.4677660317</v>
+        <v>651078.2870040286</v>
       </c>
       <c r="M6" t="n">
-        <v>514242.4525321946</v>
+        <v>516277.2717701916</v>
       </c>
       <c r="N6" t="n">
-        <v>649043.4677660317</v>
+        <v>651078.2870040283</v>
       </c>
       <c r="O6" t="n">
-        <v>649043.4677660317</v>
+        <v>651078.2870040284</v>
       </c>
       <c r="P6" t="n">
-        <v>639180.9757495167</v>
+        <v>641215.794987514</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>231.0906000653612</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>365.9776228496221</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>102.799017812577</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>44.08954322375894</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200.1260396556689</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.99622189246093</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>119.947910573046</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.83197231642231</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.5479015348033</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>23.71476080471626</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>32.35411886011966</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854578</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>345.274909666946</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M21" t="n">
-        <v>331.0622756918206</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
@@ -36686,7 +36686,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>568.8729598603422</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36695,7 +36695,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>264.1781307173932</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>660.1896773843218</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277213</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990831.037409641</v>
+        <v>4064206.326395729</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7543515.948138998</v>
+        <v>7445238.17318634</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>47.80654717117288</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.6430860559931</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>118.3167770327489</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0481001000691</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.1468521153387</v>
+        <v>128.3685459889159</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>168.4743637384531</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6910260201687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>8.93441637329088</v>
       </c>
       <c r="D8" t="n">
-        <v>330.9682808159667</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>253.9277553818581</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>211.2695306118679</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>11.89446409565907</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>230.2213142441243</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>11.89446409565907</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6938553137961</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.7412776424977</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>144.4294688977663</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.222908378110342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.45317346088589</v>
+        <v>53.91390732490781</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>31.42218700821033</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2034995646198</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373699</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463137</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>16.00705914582165</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>123.6066176910527</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>3.706296044697101</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329001</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>0.2587609883636833</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>166.5434303332243</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>58.40168825977577</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>11.84011219559395</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.678746767763</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4130481610125</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>840.4130481610125</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>429.427143371405</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>1000.665955298253</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>369.8327295799424</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>557.9528592180977</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>557.9528592180977</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2048.575150942547</v>
+        <v>1173.337372245453</v>
       </c>
       <c r="C8" t="n">
-        <v>1679.612634002136</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1563.476704221265</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1563.476704221265</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.575150942547</v>
+        <v>1173.337372245453</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6713633309776</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1486.901660360267</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1486.901660360267</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1197.773021573825</v>
+        <v>1155.294385054956</v>
       </c>
       <c r="V13" t="n">
-        <v>943.0885333679382</v>
+        <v>900.6098968490687</v>
       </c>
       <c r="W13" t="n">
-        <v>653.6713633309776</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="X13" t="n">
-        <v>653.6713633309776</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.6713633309776</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1486.901660360267</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1486.901660360267</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1197.773021573825</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>943.0885333679382</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W16" t="n">
-        <v>653.6713633309776</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X16" t="n">
-        <v>653.6713633309776</v>
+        <v>726.8522179318355</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.6713633309776</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1096.475226584133</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C19" t="n">
-        <v>927.5390436562259</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>777.4224042438901</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>629.509310661497</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>482.6193631635866</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1269.920684652558</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1046.135269442064</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1046.135269442064</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>791.4507812361771</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>791.4507812361771</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.123691414372</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5753,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>615.9770608986119</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>615.9770608986119</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6014,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1476.236297365088</v>
+        <v>1444.457778310521</v>
       </c>
       <c r="S25" t="n">
-        <v>1276.316287280641</v>
+        <v>1244.537768226073</v>
       </c>
       <c r="T25" t="n">
-        <v>1276.316287280641</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="U25" t="n">
-        <v>987.1876484941987</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="V25" t="n">
-        <v>987.1876484941987</v>
+        <v>1020.752353015579</v>
       </c>
       <c r="W25" t="n">
-        <v>987.1876484941987</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X25" t="n">
-        <v>987.1876484941987</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.3950693506686</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6309,13 +6311,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.956674296862</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C28" t="n">
-        <v>128.956674296862</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>128.956674296862</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X28" t="n">
-        <v>531.3977182706318</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y28" t="n">
-        <v>310.6051391271017</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229669</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506722</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1482.747523945962</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1482.747523945962</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1258.962108735468</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>969.8334699490258</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>969.8334699490258</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>969.8334699490258</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,19 +6788,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>3872.46345166794</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>3872.46345166794</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>3722.346812255604</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>3574.433718673211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>3574.433718673211</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>3574.433718673211</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>3872.46345166794</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.654895822182</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.654895822182</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.654895822182</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.52625703574</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>954.8417688298529</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>954.8417688298529</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>726.8522179318355</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7730,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3686.322319899658</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="C46" t="n">
-        <v>3627.330715596854</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="D46" t="n">
-        <v>3627.330715596854</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596854</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596854</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H46" t="n">
         <v>3459.155393916675</v>
@@ -7834,22 +7836,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V46" t="n">
-        <v>4606.170084808406</v>
+        <v>4625.10944851532</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.752914771445</v>
+        <v>4625.10944851532</v>
       </c>
       <c r="X46" t="n">
-        <v>4088.763363873428</v>
+        <v>4625.10944851532</v>
       </c>
       <c r="Y46" t="n">
-        <v>3867.970784729898</v>
+        <v>4404.31686937179</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>159.012100313524</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>148.1350559470634</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298383</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>274.3657496970641</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.0263458879442</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.01603815445301</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.0263458879442</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>45.01580007524109</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>81.1795323411055</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>22.81735220086154</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>282.3000899584807</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.51117894290689</v>
+        <v>56.05044507888498</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.0117756383588</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>61.38115378747497</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>93.95729325797112</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>162.9163806455383</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.207532322839</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.7055914154291</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>119.9795680033668</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>108.8451328388521</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>240.2975311282341</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551752</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664823.1235065464</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664823.1235065463</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664823.1235065464</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664823.1235065464</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885327</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176766</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176766</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371248</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362278</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362277</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362279</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362273</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002536</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210378</v>
+        <v>-46802.0089821037</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324406</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324406</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="E6" t="n">
-        <v>116055.7585106173</v>
+        <v>116055.7585106175</v>
       </c>
       <c r="F6" t="n">
         <v>641215.7949875135</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875135</v>
+        <v>641215.7949875133</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875138</v>
+        <v>641215.7949875137</v>
       </c>
       <c r="I6" t="n">
-        <v>641215.7949875135</v>
+        <v>641215.7949875137</v>
       </c>
       <c r="J6" t="n">
         <v>464792.5757949206</v>
       </c>
       <c r="K6" t="n">
-        <v>596572.774900316</v>
+        <v>641215.7949875131</v>
       </c>
       <c r="L6" t="n">
-        <v>651078.2870040286</v>
+        <v>641215.7949875137</v>
       </c>
       <c r="M6" t="n">
-        <v>516277.2717701916</v>
+        <v>506414.7797536766</v>
       </c>
       <c r="N6" t="n">
-        <v>651078.2870040283</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="O6" t="n">
-        <v>651078.2870040284</v>
+        <v>641215.7949875136</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.794987514</v>
+        <v>641215.7949875137</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,16 +26743,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26762,7 +26764,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>365.9776228496221</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.5948526000605</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>30.29869598546344</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>44.08954322375894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.1260396556689</v>
+        <v>236.9043457820917</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>117.8075105035246</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.83197231642231</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>356.3384753977166</v>
       </c>
       <c r="D8" t="n">
-        <v>23.71476080471626</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>32.35411886011966</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>7.315122740226911</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932195</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>469.4364773639903</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>535.7175786218068</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36458,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36677,16 +36679,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>355.2284708785882</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37169,7 +37171,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37403,7 +37405,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,13 +37633,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>180.0507982277213</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>584.7901267475304</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37877,10 +37879,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064206.326395729</v>
+        <v>4057189.311504018</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>150.3081199623968</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.6430860559931</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>118.3167770327489</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>128.3685459889159</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>25.58739509707025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>168.4743637384531</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>8.93441637329088</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.2695306118679</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>230.2213142441243</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.1005747232762</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6938553137961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>116.7412776424977</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>144.4294688977663</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.91390732490781</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.2034995646198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.00705914582165</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>123.6066176910527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.706296044697101</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2587609883636833</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4266076452306</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>166.5434303332243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>11.84011219559395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.0661152341316</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1034.719078512186</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1034.719078512186</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>623.7331737225784</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>205.7693656207653</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>205.7693656207653</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000.665955298253</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,7 +4424,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>331.20325038051</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.977907210731</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1062.2045243501</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>651.2186195604922</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>233.2548114586791</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.337372245453</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491379</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221265</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221265</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.337372245453</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1155.294385054956</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>900.6098968490687</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>611.1927268121082</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1927268121082</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>390.400147668578</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033467</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>909.3712637033467</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8522179318355</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0596387883054</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1269.920684652558</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T19" t="n">
-        <v>1046.135269442064</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U19" t="n">
-        <v>1046.135269442064</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V19" t="n">
-        <v>791.4507812361771</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>791.4507812361771</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>563.4612303381598</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>799.8610847926847</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>653.9727323706985</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706985</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5946,16 +5946,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.5095496229244</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,16 +5974,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1444.457778310521</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1244.537768226073</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1020.752353015579</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1020.752353015579</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.752353015579</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3351829786183</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766205</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1564.731711769082</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1894.594339433115</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1482.747523945962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1482.747523945962</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.962108735468</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>969.8334699490258</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>969.8334699490258</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>969.8334699490258</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3712637033469</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>784.5160943184452</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>784.5160943184452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3872.46345166794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3872.46345166794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3722.346812255604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3574.433718673211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3574.433718673211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3574.433718673211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4093.25603081147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4093.25603081147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3872.46345166794</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.0596387883054</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>506.0596387883054</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.654895822182</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.654895822182</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.654895822182</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.52625703574</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>954.8417688298529</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8417688298529</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8522179318355</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0596387883054</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>506.7814158330672</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4625.10944851532</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>4625.10944851532</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>4625.10944851532</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>4404.31686937179</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,10 +8297,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>85.30006332127823</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>159.012100313524</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>148.1350559470634</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>165.9802687929762</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>274.3657496970641</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>158.8724419039332</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>56.01603815445301</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>122.4224236133148</v>
       </c>
       <c r="X16" t="n">
-        <v>45.01580007524109</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>81.1795323411055</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>22.81735220086154</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>56.05044507888498</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.38115378747497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>93.95729325797112</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>162.9163806455383</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>145.207532322839</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.7055914154291</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>34.28304774380658</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>119.9795680033668</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>240.2975311282341</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634610.7944551752</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26432,19 +26432,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.0089821037</v>
+        <v>-46802.00898210378</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324408</v>
+        <v>543165.8702324409</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324408</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="E6" t="n">
-        <v>116055.7585106175</v>
+        <v>115081.1672508959</v>
       </c>
       <c r="F6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.203727792</v>
       </c>
       <c r="I6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="J6" t="n">
-        <v>464792.5757949206</v>
+        <v>463817.9845351989</v>
       </c>
       <c r="K6" t="n">
-        <v>641215.7949875131</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="L6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="M6" t="n">
-        <v>506414.7797536766</v>
+        <v>505440.1884939544</v>
       </c>
       <c r="N6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="O6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277916</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.623196282464477</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.5948526000605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.29869598546344</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>236.9043457820917</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>298.3353776672869</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>117.8075105035246</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>356.3384753977166</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.315122740226911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932195</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>469.4364773639903</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>535.7175786218068</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>355.2284708785882</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>499.1748421909892</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>584.7901267475304</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>365.9658568354579</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4057189.311504018</v>
+        <v>4062128.57435305</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7445238.17318634</v>
+        <v>7445238.173186339</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>405.2528494592469</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150.3081199623968</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>164.1005747232762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>149.0799667719507</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>191.4266076452306</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>83.51327189692756</v>
       </c>
     </row>
     <row r="41">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.1291651532053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4318,13 +4318,13 @@
         <v>1034.719078512186</v>
       </c>
       <c r="F2" t="n">
-        <v>623.7331737225784</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>205.7693656207653</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>205.7693656207653</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,7 +4652,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,46 +5029,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5123,7 +5123,7 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L12" t="n">
         <v>953.6472828615138</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5293,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5345,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>654.768200770936</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5530,13 +5530,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,25 +5597,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>339.7502131046251</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>953.6472828615138</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,13 +5691,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1348.33044553573</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,22 +5767,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,7 +5834,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
         <v>1288.32563221405</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,10 +5992,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,16 +6165,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6660,13 +6660,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6891,13 +6891,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,58 +7168,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>816.5074119443557</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7148328008255</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>303.4081673726145</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.49733361305235</v>
+        <v>52.49733361305215</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>32.92248665775543</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>127.6461250100647</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>122.4224236133148</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>48.84084321165253</v>
+        <v>48.84084321165207</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>108.8451328388535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>34.28304774380658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>135.0713814551672</v>
       </c>
     </row>
     <row r="41">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.45548819888947</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="12">
@@ -26316,10 +26316,10 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885327</v>
@@ -26328,28 +26328,28 @@
         <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885322</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230232</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-46802.00898210378</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324409</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324406</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="E6" t="n">
-        <v>115081.1672508959</v>
+        <v>115958.2993846453</v>
       </c>
       <c r="F6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615412</v>
       </c>
       <c r="G6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615416</v>
       </c>
       <c r="H6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615414</v>
       </c>
       <c r="I6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="J6" t="n">
-        <v>463817.9845351989</v>
+        <v>464695.1166689484</v>
       </c>
       <c r="K6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="L6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="M6" t="n">
-        <v>505440.1884939544</v>
+        <v>506317.3206277042</v>
       </c>
       <c r="N6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615412</v>
       </c>
       <c r="O6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="P6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615411</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.623196282464505</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>1.623196282464477</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.438865424030031e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0727722009916</v>
+        <v>203.0727722009914</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>343.3468637082218</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>438.070502060531</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
